--- a/ExpressFoodApplicationAdmin/files/FoodItemsForImport2.xlsx
+++ b/ExpressFoodApplicationAdmin/files/FoodItemsForImport2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krist\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131FFF3D-14C3-49DA-828C-5AFBAD2BC946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82156800-7ABC-4B26-8ECC-F09B9685C155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{23DD4D35-8A9E-4316-804E-5358F791324B}"/>
   </bookViews>
@@ -41,22 +41,22 @@
     <t>https://korpa.mk/product_uploads/GCaRugAYycgeEuKJJb7tBjDfvZEQEu8w.png</t>
   </si>
   <si>
-    <t>Pollo Verdure</t>
-  </si>
-  <si>
     <t>Доматен сос, пилешко месо, модар домат, тиквичка, кромид, морков</t>
   </si>
   <si>
     <t>478da490-0f31-48c5-b120-3d9cbebfbb52</t>
   </si>
   <si>
-    <t>Chicken Pesto &amp; Broccoli</t>
-  </si>
-  <si>
     <t>Пилешко месо, бел сос, брокули</t>
   </si>
   <si>
     <t>https://korpa.mk/product_uploads/0q032R4rZdmFuBziz8NFXyTyaBgDXmOk.jpg</t>
+  </si>
+  <si>
+    <t>Pollo Verdure - novo</t>
+  </si>
+  <si>
+    <t>Chicken Pesto &amp; Broccoli - import novo</t>
   </si>
 </sst>
 </file>
@@ -444,17 +444,17 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
       </c>
       <c r="C1">
         <v>150.01</v>
@@ -463,24 +463,24 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>150.01</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
